--- a/final_data_pipeline/output/325312longform.xlsx
+++ b/final_data_pipeline/output/325312longform.xlsx
@@ -822,7 +822,7 @@
         <v>83</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB2">
         <v>8000</v>
@@ -911,7 +911,7 @@
         <v>83</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB3">
         <v>8000</v>
@@ -2318,7 +2318,7 @@
         <v>83</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB18">
         <v>8000</v>
@@ -2407,7 +2407,7 @@
         <v>83</v>
       </c>
       <c r="AA19">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB19">
         <v>8000</v>
@@ -4375,7 +4375,7 @@
         <v>83</v>
       </c>
       <c r="AA40">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB40">
         <v>8000</v>
@@ -4467,7 +4467,7 @@
         <v>83</v>
       </c>
       <c r="AA41">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB41">
         <v>8000</v>
@@ -4556,7 +4556,7 @@
         <v>83</v>
       </c>
       <c r="AA42">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB42">
         <v>8000</v>
@@ -4651,7 +4651,7 @@
         <v>83</v>
       </c>
       <c r="AA43">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB43">
         <v>8000</v>
@@ -4749,7 +4749,7 @@
         <v>83</v>
       </c>
       <c r="AA44">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB44">
         <v>8000</v>
@@ -4841,7 +4841,7 @@
         <v>83</v>
       </c>
       <c r="AA45">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB45">
         <v>8000</v>
@@ -4930,7 +4930,7 @@
         <v>83</v>
       </c>
       <c r="AA46">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB46">
         <v>8000</v>
@@ -5025,7 +5025,7 @@
         <v>83</v>
       </c>
       <c r="AA47">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB47">
         <v>8000</v>
